--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -141,11 +141,13 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx, Xenium and
-Resolve, this is the area of the FOV (aka ROI) region being captured.</t>
+        <t>For Visium, this is the area of spots that was covered by tissue within the
+captured area, not the total possible captured area which is fixed. For GeoMx
+this would be the area of the AOI being captured. For HiFi this is the summed
+area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
+area of the FOV (aka ROI) region being captured. For Xenium this is the total
+area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
+number of beads.</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
@@ -227,9 +229,10 @@
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>(Required) A label for the region of interest (ROI). For Xenium, Resolve and
-CosMx, this is the field of view (FOV) label. For GeoMx this can be found in the
-"Initial Dataset" spreadsheet (download from within Data Analysis Suite).</t>
+        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
+view (FOV) label. For Xenium this is the ID of the region containing the
+analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
+(download from within Data Analysis Suite).</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
@@ -268,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="329">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1194,6 +1197,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
   </si>
   <si>
@@ -1242,7 +1251,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-14T14:44:27-05:00</t>
+    <t>2024-10-17T13:02:56-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1470,25 +1479,25 @@
         <v>291</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
@@ -1496,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1576,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$10</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1656,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1740,6 +1749,14 @@
       </c>
       <c r="B10" t="s" s="0">
         <v>311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -1786,16 +1803,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
@@ -1803,13 +1820,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="331">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -696,6 +696,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1251,7 +1257,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-17T13:02:56-07:00</t>
+    <t>2024-11-06T10:12:16-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1422,82 +1428,82 @@
         <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2">
@@ -1505,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1526,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1602,10 +1608,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1623,10 +1629,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1644,18 +1650,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1673,90 +1679,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -1803,16 +1809,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
@@ -1820,13 +1826,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2473,6 +2479,14 @@
       </c>
       <c r="B22" t="s" s="0">
         <v>154</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2490,418 +2504,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2919,42 +2933,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2972,26 +2986,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3009,18 +3023,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="335">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1161,24 +1161,60 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Multi-Tissue and Cancer Panel v1; PN 1000626</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000395</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
@@ -1191,30 +1227,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
-  </si>
-  <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -1257,7 +1269,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-11-06T10:12:16-08:00</t>
+    <t>2024-12-06T17:11:10-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1485,25 +1497,25 @@
         <v>293</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -1511,7 +1523,7 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1594,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$11</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1671,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1763,6 +1775,22 @@
       </c>
       <c r="B11" t="s" s="0">
         <v>315</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -1809,16 +1837,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
@@ -1826,13 +1854,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="341">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -411,6 +411,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -435,6 +441,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -510,18 +522,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -534,13 +546,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -576,24 +594,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -1269,7 +1287,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-12-06T17:11:10-08:00</t>
+    <t>2025-01-08T12:49:39-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1431,91 +1449,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
@@ -1523,16 +1541,16 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1620,10 +1638,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1641,10 +1659,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1662,18 +1680,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1691,106 +1709,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1808,12 +1826,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1837,16 +1855,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -1854,13 +1872,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2164,6 +2182,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2171,7 +2205,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2179,122 +2213,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2312,12 +2354,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2335,186 +2377,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2532,418 +2574,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2961,42 +3003,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3014,26 +3056,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3051,18 +3093,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="371">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -513,6 +513,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -660,6 +672,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
+  </si>
+  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -813,6 +831,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -831,12 +855,24 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -849,12 +885,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -867,12 +915,24 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -897,6 +957,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -939,6 +1005,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1017,6 +1089,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1059,6 +1137,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1185,6 +1269,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
   </si>
   <si>
@@ -1287,7 +1377,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:49:39-08:00</t>
+    <t>2025-03-16T18:50:59-04:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1449,91 +1539,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
@@ -1541,13 +1631,13 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>333</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1556,10 +1646,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$63</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1612,7 +1702,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$13</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1638,10 +1728,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1659,10 +1749,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1680,18 +1770,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1709,106 +1799,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>311</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>323</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>325</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -1826,12 +1924,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1855,16 +1953,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>339</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2">
@@ -1872,13 +1970,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1986,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2196,6 +2294,22 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2213,130 +2327,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2354,12 +2468,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2377,186 +2491,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2574,418 +2696,506 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3003,42 +3213,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3056,26 +3266,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3093,18 +3303,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -55,11 +55,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -111,8 +111,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="385">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -357,10 +357,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -459,6 +459,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -636,40 +642,100 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
   </si>
   <si>
     <t>Vizgen</t>
@@ -684,12 +750,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -702,18 +762,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -738,48 +786,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -867,6 +885,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -933,6 +957,12 @@
     <t>https://identifiers.org/RRID:SCR_026551</t>
   </si>
   <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -1287,6 +1317,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+  </si>
+  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -1335,6 +1371,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -1377,7 +1419,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-03-16T18:50:59-04:00</t>
+    <t>2025-04-24T10:55:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1539,91 +1581,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
@@ -1631,13 +1673,13 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$40</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1646,10 +1688,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$63</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1702,7 +1744,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$14</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1728,10 +1770,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1791,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1770,18 +1812,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1799,114 +1841,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>355</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1924,12 +1982,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1953,16 +2011,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
@@ -1970,13 +2028,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +2044,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2310,6 +2368,14 @@
       </c>
       <c r="B40" t="s" s="0">
         <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2327,130 +2393,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2468,12 +2534,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2491,194 +2557,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2770,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2696,506 +2778,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>283</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3213,42 +3319,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3266,26 +3372,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3303,18 +3409,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="389">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1011,6 +1011,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1080,7 +1092,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1419,7 +1431,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:55:06-07:00</t>
+    <t>2025-05-12T10:18:37-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1593,79 +1605,79 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -1673,7 +1685,7 @@
         <v>18</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1703,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1770,10 +1782,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1791,10 +1803,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1812,18 +1824,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1841,130 +1853,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2011,16 +2023,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
@@ -2028,13 +2040,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2782,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3226,26 +3238,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3302,6 +3314,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3319,42 +3347,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3372,26 +3400,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3409,18 +3437,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="423">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -291,6 +291,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -327,6 +333,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -429,6 +441,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -666,6 +684,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -780,12 +810,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -819,6 +861,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -927,6 +975,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1005,6 +1059,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1041,6 +1101,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1155,6 +1221,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1167,6 +1239,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1191,6 +1269,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1323,6 +1407,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -1371,6 +1461,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
@@ -1389,6 +1485,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -1431,7 +1533,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:18:37-07:00</t>
+    <t>2025-07-16T10:38:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1593,105 +1695,105 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>380</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>381</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$44</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1700,10 +1802,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1756,7 +1858,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$16</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1782,10 +1884,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1905,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -1824,18 +1926,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1853,130 +1955,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>351</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>373</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -1994,12 +2120,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2023,30 +2149,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>388</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2388,6 +2514,30 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2405,130 +2555,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2546,12 +2696,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2711,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2569,210 +2719,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2964,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2790,546 +2972,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3347,42 +3585,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3400,26 +3638,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3437,18 +3675,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>331</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="431">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1455,12 +1455,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000395</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (up to 50 genes); PN 1000464</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000445</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
+  </si>
+  <si>
     <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
   </si>
   <si>
@@ -1479,6 +1497,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
+  </si>
+  <si>
     <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
   </si>
   <si>
@@ -1533,7 +1557,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-07-16T10:38:03-07:00</t>
+    <t>2025-07-21T13:59:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1761,25 +1785,25 @@
         <v>369</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2">
@@ -1787,7 +1811,7 @@
         <v>22</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1882,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$19</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1947,7 +1971,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2103,6 +2127,38 @@
       </c>
       <c r="B19" t="s" s="0">
         <v>407</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2149,16 +2205,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
@@ -2166,13 +2222,13 @@
         <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -34,235 +34,253 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material stored, prior to this sample being
-processed? For assays applied to tissue sections, this would be how long the
-tissue section (e.g., slide) was stored, prior to the assay beginning (e.g.,
-imaging). For assays applied to suspensions such as sequencing, this would be
-how long the suspension was stored before library construction began.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>For Visium, this is the area of spots that was covered by tissue within the
-captured area, not the total possible captured area which is fixed. For GeoMx
-this would be the area of the AOI being captured. For HiFi this is the summed
-area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
-area of the FOV (aka ROI) region being captured. For Xenium this is the total
-area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
-number of beads.</t>
+        <t>(Required) The mapped area value, which refers to the specific area covered or
+captured in various assays. For Visium, it is the area of spots covered by
+tissue within the captured area, excluding the total possible captured area. For
+GeoMx, it refers to the area of the AOI being captured. In HiFi, it is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, it
+indicates the area of the FOV (also known as ROI) region being captured. For
+Xenium, it is the total area of the FOV regions (also known as ROI) being
+captured. For Stereo-Seq, this value represents the number of beads. Example:
+42.25</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) The unit of measurement for the mapping area. For Visium and GeoMx
-this is typically um^2.</t>
+        <t>(Required) The unit of measurement for the mapped area value. If mapping area is
+not specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>Will normally be 100 degrees Celsius for RNA assays, and 80 degrees Celsius for
-protein assays.</t>
+        <t>The incubation temperature required for target retrieval, which is typically 100
+degrees Celsius for RNA assays and 80 degrees Celsius for protein assays.
+Example: 100</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>The duration for which a sample is exposed to a target retrieval solution.</t>
+        <t>The duration for which a sample is exposed to a target retrieval solution.
+Example: 15</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>The units for target retrieval incubation time value.</t>
+        <t>The unit of measurement for the target retrieval incubation time value. If no
+incubation time is specified, this field may be left blank. Example: minute</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>The amount or concentration of the enzyme Proteinase K within a sample (in
-ug/ml).</t>
+        <t>The concentration of the enzyme Proteinase K within a sample, measured in
+micrograms per milliliter (ug/ml). Example: 10</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>The duration for which a sample is exposed to Proteinase K.</t>
+        <t>The duration for which a sample is incubated with Proteinase K. Example: 15</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>The units for proteinaseK incubation time value.</t>
+        <t>The unit of measurement for the proteinaseK incubation time value. If no
+incubation time is specified, this field may be left blank. Example: minute</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>How long was the oligo-conjugated RNA or oligo-conjugated antibody probes
-hybridized with the sample?</t>
+        <t>The duration for which the oligo-conjugated RNA or oligo-conjugated antibody
+probes were hybridized with the sample. Example: 30</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>The units for probe hybridization time value.</t>
+        <t>The unit of measurement for the probe hybridization time value. If the
+hybridization time is not specified, this field may be left blank. Example:
+minute</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) This is the probe panel used to target genes and/or proteins. In
-cases where there is a core panel and add-on modules, the core panel should be
-selected here. If additional panels are used, then they must be included in the
-"additional_panels_used.csv" file that's uploaded with the dataset.</t>
+        <t>(Required) The oligo probe panel used to target genes and/or proteins. If there
+is a core panel along with add-on modules, the core panel should be selected in
+this field. Any additional panels utilized should be documented in the
+"additional_panels_used.csv" file, which must be uploaded alongside the dataset.
+Example: 10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>(Required) State ("Yes" or "No") whether custom RNA or antibody probes were
-used. If custom probes were used, they must be listed in the
-"custom_probe_set.csv" file.</t>
+        <t>(Required) Indicates whether custom RNA or antibody probes were utilized in the
+assay. If custom probes were employed, they should be documented in the
+"custom_probe_set.csv" file. Example: No</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>(Required) How many genes, RNA isoforms or RNA regions are targeted by probes.</t>
+        <t>(Required) The number of panel targets, which refers to the total count of
+genes, RNA isoforms, or RNA regions that are targeted by probes. Example: 1000</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
-view (FOV) label. For Xenium this is the ID of the region containing the
-analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
-(download from within Data Analysis Suite).</t>
+        <t>(Required) The label for the region of interest (ROI). For Resolve and CosMx,
+this corresponds to the field of view (FOV) label. In the case of Xenium, it
+refers to the ID of the region containing the analysis. For GeoMx, this
+information can be located in the "Initial Dataset" spreadsheet, which can be
+downloaded from within the Data Analysis Suite. Example: Decidua</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
       <text>
-        <t>The overarching anatomical structure.</t>
+        <t>The label for the overarching anatomical structure. If the anatomical structure
+is not applicable or not specified, this field may be left blank. Example:
+Kidney</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
       <text>
-        <t>The ontology ID for the parent structure. Typically this would be an UBERON ID.</t>
+        <t>The ontology ID associated with the anatomical structure, typically represented
+by an UBERON ID. Example: UBERON:0002113</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="1">
       <text>
-        <t>A semicolon separated list of non-shared files to be included in the dataset.
-The path assumes the files are located in the "TOP/non-global/" directory. For
-example, for the file is
-TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
-field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
-these files will be copied to the appropriate locations within the respective
-dataset directory tree. This field is used for internal HuBMAP processing.
-Examples for GeoMx and PhenoCycler are provided in the File Locations
-documentation:
-https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
+        <t>Specifies a semicolon-separated list of non-global files that are to be included
+in the dataset. The file paths assume that the files are located in the
+"TOP/non-global/" directory. For instance, if the file is located at
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson, the value for
+this field would be "./lab_processed/images/1-tissue-boundary.geojson". Once
+ingested, these files will be copied to their appropriate locations within the
+respective dataset directory tree. This field is intended for internal HuBMAP
+processing. Examples for GeoMx and PhenoCycler are provided in the File
+Locations documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee
+Example: ./lab_processed/images/1-tissue-boundary.geojson</t>
       </text>
     </comment>
     <comment ref="AG1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -271,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="456">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -291,48 +309,174 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>SNARE-seq2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
+  </si>
+  <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>Olink</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
   </si>
   <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
     <t>FACS</t>
   </si>
   <si>
@@ -345,36 +489,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -405,16 +519,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -423,30 +531,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -477,18 +567,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -501,12 +579,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -519,34 +591,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -1197,6 +1251,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1227,6 +1284,12 @@
     <t>https://identifiers.org/RRID:SCR_027095</t>
   </si>
   <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1383,46 +1446,124 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Human 6K Discovery Panel (RNA, 6175 Plex); PN 121500041</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000455</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Mouse Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-M-USCP-1KP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000457</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Hs WTX RNA Panel Kit, 2 slides: PN 121500047</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000453</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (RNA, 1000 Plex); PN CMX-M-NEUP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000452</t>
   </si>
   <si>
     <t>Custom</t>
@@ -1437,18 +1578,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
-  </si>
-  <si>
     <t>10x Genomics; Xenium Human Multi-Tissue and Cancer Panel v1; PN 1000626</t>
   </si>
   <si>
@@ -1461,66 +1590,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000445</t>
   </si>
   <si>
-    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000306</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
-  </si>
-  <si>
     <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
   </si>
   <si>
-    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000382</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Hs Univ Cell (RNA, 1000 Plex); PN 121500002</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000454</t>
+  </si>
+  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -1557,7 +1650,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-07-21T13:59:19-07:00</t>
+    <t>2025-10-22T11:06:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1719,105 +1812,105 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>423</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$44</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1829,7 +1922,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1882,7 +1975,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$23</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1908,10 +2001,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +2022,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1950,18 +2043,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1979,186 +2072,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>383</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>405</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>409</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>415</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2176,12 +2309,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2205,30 +2338,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>429</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2594,6 +2727,54 @@
       </c>
       <c r="B44" t="s" s="0">
         <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2611,130 +2792,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2752,12 +2933,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2775,242 +2956,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3201,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3028,602 +3209,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>160</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>314</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>315</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>337</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3641,42 +3838,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3694,26 +3891,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3731,18 +3928,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="458">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -357,6 +357,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -612,18 +618,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1650,7 +1656,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-22T11:06:53-07:00</t>
+    <t>2025-11-19T14:44:38-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1812,105 +1818,105 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2001,10 +2007,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2022,10 +2028,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2043,18 +2049,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2072,226 +2078,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -2309,12 +2315,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2338,30 +2344,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2775,6 +2781,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2792,130 +2806,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2933,12 +2947,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2956,242 +2970,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3209,618 +3223,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3838,42 +3852,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3891,26 +3905,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3928,18 +3942,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/xenium/v2.0.0/xenium-v2.0.0.xlsx
+++ b/xenium/v2.0.0/xenium-v2.0.0.xlsx
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="460">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -618,6 +618,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1656,7 +1662,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:44:38-08:00</t>
+    <t>2025-11-20T09:45:36-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1821,88 +1827,88 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
@@ -1910,7 +1916,7 @@
         <v>66</v>
       </c>
       <c r="AG2" t="s" s="34">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1925,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2007,10 +2013,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2028,10 +2034,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2049,18 +2055,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2078,226 +2084,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -2315,12 +2321,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2344,16 +2350,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
@@ -2361,13 +2367,13 @@
         <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2804,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2930,6 +2936,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2947,12 +2961,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2970,242 +2984,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3223,474 +3237,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -3698,143 +3712,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3852,42 +3866,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3905,26 +3919,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3942,18 +3956,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
